--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/ColateralClientesExternos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/ColateralClientesExternos.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maricela BF\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOPORTE.TECNICO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CCF77-96CC-46A6-8D50-6A01067DEBA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7650" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$J$68</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -26,32 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>r06xd</author>
-  </authors>
-  <commentList>
-    <comment ref="J8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>El sistema valida si se realiza el recalculo del valor de colateral o no</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="45">
   <si>
     <t>RuleSet</t>
   </si>
@@ -83,10 +57,16 @@
     <t>C1</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>VALOR COLATERAL Y CATEGORIA CLIENTE EXTERNO</t>
@@ -128,19 +108,10 @@
     <t>opcion.getValorARecibir()&gt;=$param</t>
   </si>
   <si>
-    <t>cliente.setReclaculoColateral($param);</t>
-  </si>
-  <si>
     <t xml:space="preserve">CREDITO MENOR A </t>
   </si>
   <si>
     <t>CREDITO MAYOR A</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion</t>
@@ -155,9 +126,6 @@
     <t>VALOR PARAMETRIZADO</t>
   </si>
   <si>
-    <t>REALIZAR RECALCULO DEL VALOR COLATERAL?</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -169,12 +137,36 @@
   <si>
     <t>A</t>
   </si>
+  <si>
+    <t>CARTERA ATRASADA</t>
+  </si>
+  <si>
+    <t>CARTERA CASTIGADA</t>
+  </si>
+  <si>
+    <t>cliente.getMontoCarteraVencida()&gt;=$param</t>
+  </si>
+  <si>
+    <t>cliente.getMontoCarteraCastigada()&gt;=$param</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>E+</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,13 +200,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -338,10 +323,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,13 +362,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +468,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -492,7 +477,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,7 +522,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -546,7 +531,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -591,7 +576,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -600,7 +585,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,7 +630,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -654,7 +639,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -699,7 +684,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -708,7 +693,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +738,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -762,7 +747,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -807,7 +792,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -816,7 +801,7 @@
         <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,7 +846,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -870,7 +855,7 @@
         <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +900,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -924,7 +909,7 @@
         <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +954,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -978,7 +963,7 @@
         <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1008,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -1032,7 +1017,7 @@
         <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1062,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -1086,7 +1071,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1116,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -1140,7 +1125,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1170,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -1194,7 +1179,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1224,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -1248,7 +1233,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,8 +1277,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1302,7 +1287,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,8 +1334,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1359,7 +1344,7 @@
         <xdr:cNvPr id="18" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,8 +1391,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1416,7 +1401,7 @@
         <xdr:cNvPr id="19" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,8 +1448,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1473,7 +1458,7 @@
         <xdr:cNvPr id="20" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,8 +1505,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1530,7 +1515,7 @@
         <xdr:cNvPr id="21" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,8 +1562,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1587,7 +1572,7 @@
         <xdr:cNvPr id="22" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,8 +1619,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1644,7 +1629,7 @@
         <xdr:cNvPr id="23" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,8 +1676,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1701,7 +1686,7 @@
         <xdr:cNvPr id="24" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,8 +1733,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1758,7 +1743,7 @@
         <xdr:cNvPr id="25" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,8 +1790,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1815,7 +1800,7 @@
         <xdr:cNvPr id="26" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,8 +1847,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1872,7 +1857,7 @@
         <xdr:cNvPr id="27" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,8 +1904,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1929,7 +1914,7 @@
         <xdr:cNvPr id="28" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,8 +1961,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -1986,7 +1971,7 @@
         <xdr:cNvPr id="29" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,8 +2018,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -2043,7 +2028,7 @@
         <xdr:cNvPr id="30" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,8 +2075,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -2100,7 +2085,7 @@
         <xdr:cNvPr id="31" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2133,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2157,7 +2142,7 @@
         <xdr:cNvPr id="32" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CBE0FD5-E2DD-4D65-9096-477B89D40313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBE0FD5-E2DD-4D65-9096-477B89D40313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2187,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2211,7 +2196,7 @@
         <xdr:cNvPr id="33" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA3973F7-0D0B-45AF-B5D4-3C76D04A9B70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3973F7-0D0B-45AF-B5D4-3C76D04A9B70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2241,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2265,7 +2250,7 @@
         <xdr:cNvPr id="34" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7A9AA54-84B6-4112-907C-BD3E6D8C528D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A9AA54-84B6-4112-907C-BD3E6D8C528D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2295,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2319,7 +2304,7 @@
         <xdr:cNvPr id="35" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576FE350-57C9-4F05-9FD2-5A5940E8645A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576FE350-57C9-4F05-9FD2-5A5940E8645A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2349,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2373,7 +2358,7 @@
         <xdr:cNvPr id="36" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C1AA600-AC9B-43C5-B618-67777EBB4557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1AA600-AC9B-43C5-B618-67777EBB4557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2403,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2427,7 +2412,7 @@
         <xdr:cNvPr id="37" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E731F0-A76E-4ADF-BD42-B71FD8636FC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E731F0-A76E-4ADF-BD42-B71FD8636FC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2457,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2481,7 +2466,7 @@
         <xdr:cNvPr id="38" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13D50F4B-45CA-41D6-B4DF-DD6508613134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D50F4B-45CA-41D6-B4DF-DD6508613134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2511,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2535,7 +2520,7 @@
         <xdr:cNvPr id="39" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6307CFF-E590-4248-8533-66E17C441F6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6307CFF-E590-4248-8533-66E17C441F6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2565,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2589,7 +2574,7 @@
         <xdr:cNvPr id="40" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3901155-53EE-4640-AF21-1BCB9F031F9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3901155-53EE-4640-AF21-1BCB9F031F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2619,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2643,7 +2628,7 @@
         <xdr:cNvPr id="41" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21DA8FCF-ECFE-4158-8101-F3B650C3B5BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DA8FCF-ECFE-4158-8101-F3B650C3B5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2673,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2697,7 +2682,7 @@
         <xdr:cNvPr id="42" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F7AB04C-1713-4353-9504-71BB48E0BCF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7AB04C-1713-4353-9504-71BB48E0BCF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2727,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2751,7 +2736,7 @@
         <xdr:cNvPr id="43" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B13CB2D3-3319-44D7-94BA-D8B63B4424C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13CB2D3-3319-44D7-94BA-D8B63B4424C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2781,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2805,7 +2790,7 @@
         <xdr:cNvPr id="44" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2753B57-5A64-4160-A7AB-C6B1F1113E06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2753B57-5A64-4160-A7AB-C6B1F1113E06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2835,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2859,7 +2844,7 @@
         <xdr:cNvPr id="45" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4B3E3A9-9CCD-4690-85EC-9833BA411370}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B3E3A9-9CCD-4690-85EC-9833BA411370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2889,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3390</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>253080</xdr:rowOff>
     </xdr:to>
@@ -2913,7 +2898,7 @@
         <xdr:cNvPr id="46" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A12271EC-7693-460C-ADBC-A38A47065393}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12271EC-7693-460C-ADBC-A38A47065393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,8 +2942,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -2967,7 +2952,7 @@
         <xdr:cNvPr id="47" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDA8C491-FA2E-41B0-947F-D97188904787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA8C491-FA2E-41B0-947F-D97188904787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,8 +2999,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3024,7 +3009,7 @@
         <xdr:cNvPr id="48" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE704AD-F23B-4869-93A0-69C61F417A8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE704AD-F23B-4869-93A0-69C61F417A8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,8 +3056,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3081,7 +3066,7 @@
         <xdr:cNvPr id="49" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBC40369-3CB1-41E9-A321-C4B3F46D3ADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC40369-3CB1-41E9-A321-C4B3F46D3ADD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,8 +3113,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3138,7 +3123,7 @@
         <xdr:cNvPr id="50" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902E4B74-5683-439D-BA7C-D1D7B1836FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902E4B74-5683-439D-BA7C-D1D7B1836FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,8 +3170,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3195,7 +3180,7 @@
         <xdr:cNvPr id="51" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9579979C-99ED-4A84-9EF8-E0FF07B5CB81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9579979C-99ED-4A84-9EF8-E0FF07B5CB81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,8 +3227,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3252,7 +3237,7 @@
         <xdr:cNvPr id="52" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2742D2FF-5C69-4370-B174-BE077127FFF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2742D2FF-5C69-4370-B174-BE077127FFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,8 +3284,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3309,7 +3294,7 @@
         <xdr:cNvPr id="53" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3219EC9-435F-4369-B0B8-BE7F103332D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3219EC9-435F-4369-B0B8-BE7F103332D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,8 +3341,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3366,7 +3351,7 @@
         <xdr:cNvPr id="54" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E525683-F31A-4560-BDA3-BFD53259B634}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E525683-F31A-4560-BDA3-BFD53259B634}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,8 +3398,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3423,7 +3408,7 @@
         <xdr:cNvPr id="55" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{180DD47E-59D7-41E5-930C-D9CB5372CE99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180DD47E-59D7-41E5-930C-D9CB5372CE99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,8 +3455,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3480,7 +3465,7 @@
         <xdr:cNvPr id="56" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C07FF3EC-D6A3-4DBA-BB8B-00DF68C840D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07FF3EC-D6A3-4DBA-BB8B-00DF68C840D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,8 +3512,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3537,7 +3522,7 @@
         <xdr:cNvPr id="57" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18738E4D-896C-496C-96CB-22DB81F161D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18738E4D-896C-496C-96CB-22DB81F161D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,8 +3569,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3594,7 +3579,7 @@
         <xdr:cNvPr id="58" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5A558FC-9719-46C5-A4AC-7C829FD11A06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A558FC-9719-46C5-A4AC-7C829FD11A06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,8 +3626,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3651,7 +3636,7 @@
         <xdr:cNvPr id="59" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E13FDA7-6773-4D15-A20C-019EDF46D918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E13FDA7-6773-4D15-A20C-019EDF46D918}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,8 +3683,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3708,7 +3693,7 @@
         <xdr:cNvPr id="60" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D54A97-20B5-4F4D-9A12-CEBDBCE0BC0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D54A97-20B5-4F4D-9A12-CEBDBCE0BC0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,8 +3740,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1437720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
@@ -3765,7 +3750,7 @@
         <xdr:cNvPr id="61" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{320DEC5A-C0A6-44DB-9E56-06E25DB93265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320DEC5A-C0A6-44DB-9E56-06E25DB93265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4103,11 +4088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" activeCellId="1" sqref="A21:XFD21 A51:XFD51"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,13 +4101,13 @@
     <col min="2" max="2" width="16.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="1028" width="10.7109375" customWidth="1"/>
+    <col min="5" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="1029" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -4135,8 +4120,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="1"/>
@@ -4147,14 +4133,15 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4163,11 +4150,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4177,8 +4165,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -4199,62 +4188,69 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="2"/>
       <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>6</v>
@@ -4263,36 +4259,39 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
@@ -4300,1758 +4299,5989 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
         <v>90</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5">
-        <v>90</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5">
+        <v>110</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5">
-        <v>90</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5">
+        <v>115</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5">
-        <v>90</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
+        <v>115</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5">
-        <v>120</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5">
+        <v>90</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="4">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5">
-        <v>120</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
+        <v>110</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="4">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
-        <v>120</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
+        <v>115</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="4">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <v>120</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5">
+        <v>115</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="4">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5">
-        <v>125</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5">
+        <v>120</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
+        <v>120</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5">
         <v>125</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5">
-        <v>100</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5">
-        <v>100</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5">
+        <v>125</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5">
-        <v>100</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5">
+        <v>120</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
       </c>
       <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5">
+        <v>125</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5">
+        <v>130</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5">
+        <v>130</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5">
+        <v>125</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5">
+        <v>130</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5">
+        <v>135</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5">
+        <v>135</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
         <v>2000</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5">
+      <c r="I29" s="4"/>
+      <c r="J29" s="5">
         <v>100</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="K29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5">
+        <v>105</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5">
+        <v>110</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5">
+        <v>110</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
+    </row>
+    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>2000</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5">
+      <c r="I33" s="4"/>
+      <c r="J33" s="5">
+        <v>100</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5">
+        <v>105</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5">
+        <v>110</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5">
+        <v>110</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5">
         <v>120</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="K37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
         <v>2000</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5">
         <v>120</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="K38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
         <v>2000</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5">
+      <c r="I39" s="4"/>
+      <c r="J39" s="5">
+        <v>125</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5">
+        <v>125</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5">
         <v>120</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5">
-        <v>120</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5">
-        <v>125</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5">
-        <v>125</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H29" s="5">
-        <v>110</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H30" s="5">
-        <v>110</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H31" s="5">
-        <v>110</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H32" s="5">
-        <v>110</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H33" s="5">
-        <v>120</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="4">
-        <v>6</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H34" s="5">
-        <v>120</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4">
-        <v>7</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H35" s="5">
-        <v>120</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H36" s="5">
-        <v>120</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4">
-        <v>9</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H37" s="5">
-        <v>125</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="4">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H38" s="5">
-        <v>125</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5">
-        <v>90</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5">
-        <v>90</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4">
-        <v>3</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5">
-        <v>90</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E42" s="4">
         <v>4</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5">
-        <v>90</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5">
+        <v>125</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5">
+        <v>130</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5">
+        <v>130</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
         <v>5</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5">
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5">
+        <v>125</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5">
+        <v>130</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5">
+        <v>135</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5">
+        <v>135</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5">
         <v>120</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="K49" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
         <v>6</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="5">
-        <v>120</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4">
-        <v>7</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="5">
-        <v>120</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4">
-        <v>8</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="5">
-        <v>120</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4">
-        <v>9</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5">
-        <v>125</v>
-      </c>
-      <c r="I47" s="5" t="s">
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J53" s="5">
+        <v>105</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J54" s="5">
+        <v>110</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4">
+    </row>
+    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J55" s="5">
+        <v>115</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J56" s="5">
+        <v>115</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="5">
+        <v>105</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J58" s="5">
+        <v>110</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5">
-        <v>125</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
+    </row>
+    <row r="59" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
         <v>2000</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5">
-        <v>100</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5">
-        <v>100</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5">
-        <v>100</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="4">
-        <v>4</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5">
-        <v>100</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5">
-        <v>120</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="4">
-        <v>6</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="5">
-        <v>120</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4">
-        <v>7</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5">
-        <v>120</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="4">
-        <v>8</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="5">
-        <v>120</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="4">
-        <v>9</v>
-      </c>
-      <c r="F57" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5">
-        <v>125</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="4">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5">
-        <v>125</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H59" s="5">
-        <v>110</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J59" s="5">
+        <v>115</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="4">
         <v>2</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
       <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4">
         <v>2000</v>
       </c>
-      <c r="H60" s="5">
-        <v>110</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J60" s="5">
+        <v>115</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
       <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4">
         <v>2000</v>
       </c>
-      <c r="H61" s="5">
+      <c r="J61" s="5">
+        <v>120</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J62" s="5">
+        <v>120</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J63" s="5">
+        <v>125</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J64" s="5">
+        <v>125</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J65" s="5">
+        <v>120</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J66" s="5">
+        <v>125</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J67" s="5">
+        <v>130</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J68" s="5">
+        <v>130</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4">
+        <v>5</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J69" s="5">
+        <v>125</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J70" s="5">
+        <v>130</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4">
+        <v>5</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J71" s="5">
+        <v>135</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4">
+        <v>5</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J72" s="5">
+        <v>135</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J73" s="5">
+        <v>120</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4">
+        <v>6</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4">
+        <v>6</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4">
+        <v>6</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J77" s="5">
         <v>110</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="K77" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J78" s="5">
+        <v>115</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J79" s="5">
+        <v>120</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J80" s="5">
+        <v>120</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J81" s="5">
+        <v>110</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J82" s="5">
+        <v>115</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J83" s="5">
+        <v>120</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="4" t="s">
+    </row>
+    <row r="84" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J84" s="5">
+        <v>120</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J85" s="5">
+        <v>120</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4">
+        <v>3</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J86" s="5">
+        <v>120</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4">
+        <v>3</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J87" s="5">
+        <v>125</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J88" s="5">
+        <v>125</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4">
+        <v>4</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J89" s="5">
+        <v>125</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="4">
+        <v>4</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J90" s="5">
+        <v>130</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="4">
+    </row>
+    <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4">
         <v>4</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4">
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J91" s="5">
+        <v>135</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4">
+        <v>4</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J92" s="5">
+        <v>135</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4">
+        <v>5</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4">
+        <v>5</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4">
+        <v>5</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4">
+        <v>5</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4">
+        <v>6</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J97" s="5">
+        <v>125</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4">
+        <v>6</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4">
+        <v>6</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="4">
+        <v>6</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="5">
+        <v>100</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="5">
+        <v>115</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="5">
+        <v>120</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="5">
+        <v>120</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="5">
+        <v>100</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="5">
+        <v>115</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="5">
+        <v>120</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="4">
+        <v>2</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="5">
+        <v>120</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="5">
+        <v>120</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="5">
+        <v>0</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="5">
+        <v>0</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4">
+        <v>4</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="5">
+        <v>120</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="4">
+        <v>4</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5">
+        <v>0</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="4">
+        <v>4</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="4">
+        <v>4</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="4">
+        <v>5</v>
+      </c>
+      <c r="F117" s="4">
+        <v>0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="5">
+        <v>125</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="4">
+        <v>5</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="5">
+        <v>0</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="4">
+        <v>5</v>
+      </c>
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="4">
+        <v>5</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="5">
+        <v>0</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
         <v>2000</v>
       </c>
-      <c r="H62" s="5">
+      <c r="I121" s="4"/>
+      <c r="J121" s="5">
+        <v>100</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="5">
+        <v>105</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="5">
+        <v>120</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="J124" s="5">
+        <v>120</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2</v>
+      </c>
+      <c r="F125" s="4">
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="5">
+        <v>100</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="4">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="5">
+        <v>105</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H127" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I127" s="4"/>
+      <c r="J127" s="5">
+        <v>120</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4">
+        <v>2</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H128" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="5">
+        <v>120</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="4">
+        <v>3</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="5">
+        <v>120</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="4">
+        <v>3</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="5">
+        <v>125</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="4">
+        <v>3</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1</v>
+      </c>
+      <c r="H131" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="5">
+        <v>130</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="4">
+        <v>3</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1</v>
+      </c>
+      <c r="H132" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="5">
+        <v>130</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="4">
+        <v>4</v>
+      </c>
+      <c r="F133" s="4">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="5">
+        <v>125</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="4">
+        <v>4</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="5">
+        <v>135</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="4">
+        <v>4</v>
+      </c>
+      <c r="F135" s="4">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="H135" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="5">
+        <v>135</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="4">
+        <v>4</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I136" s="4"/>
+      <c r="J136" s="5">
+        <v>135</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="4">
+        <v>5</v>
+      </c>
+      <c r="F137" s="4">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I137" s="4"/>
+      <c r="J137" s="5">
+        <v>130</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="4">
+        <v>5</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="5">
+        <v>135</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="4">
+        <v>5</v>
+      </c>
+      <c r="F139" s="4">
+        <v>0</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1</v>
+      </c>
+      <c r="H139" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I139" s="4"/>
+      <c r="J139" s="5">
+        <v>140</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="4">
+        <v>5</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1</v>
+      </c>
+      <c r="H140" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="5">
+        <v>140</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="4">
+        <v>6</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0</v>
+      </c>
+      <c r="H141" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="5">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="4">
+        <v>6</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0</v>
+      </c>
+      <c r="H142" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I142" s="4"/>
+      <c r="J142" s="5">
+        <v>0</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="4">
+        <v>6</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I143" s="4"/>
+      <c r="J143" s="5">
+        <v>0</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="4">
+        <v>6</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1</v>
+      </c>
+      <c r="H144" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="5">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="4">
+        <v>1</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0</v>
+      </c>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J145" s="5">
+        <v>105</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J146" s="5">
         <v>110</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="K146" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1</v>
+      </c>
+      <c r="F147" s="4">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1</v>
+      </c>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J147" s="5">
+        <v>120</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J148" s="5">
+        <v>120</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J149" s="5">
+        <v>105</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J150" s="5">
+        <v>110</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2</v>
+      </c>
+      <c r="F151" s="4">
+        <v>0</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J151" s="5">
+        <v>120</v>
+      </c>
+      <c r="K151" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="4" t="s">
+    </row>
+    <row r="152" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="4">
+        <v>2</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J152" s="5">
+        <v>120</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="4">
+        <v>3</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J153" s="5">
+        <v>120</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="4">
+        <v>3</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4">
+        <v>0</v>
+      </c>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J154" s="5">
+        <v>125</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="4">
+        <v>3</v>
+      </c>
+      <c r="F155" s="4">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J155" s="5">
+        <v>130</v>
+      </c>
+      <c r="K155" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="4">
+    </row>
+    <row r="156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="4">
+        <v>3</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1</v>
+      </c>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J156" s="5">
+        <v>130</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="4">
+        <v>4</v>
+      </c>
+      <c r="F157" s="4">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J157" s="5">
+        <v>125</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="4">
+        <v>4</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J158" s="5">
+        <v>135</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="4">
+        <v>4</v>
+      </c>
+      <c r="F159" s="4">
+        <v>0</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J159" s="5">
+        <v>135</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="4">
+        <v>4</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4">
+        <v>1</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J160" s="5">
+        <v>135</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="4">
         <v>5</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4">
+      <c r="F161" s="4">
+        <v>0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>0</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4">
         <v>2000</v>
       </c>
-      <c r="H63" s="5">
-        <v>120</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="J161" s="5">
+        <v>130</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="4">
+        <v>5</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" s="4">
+        <v>0</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J162" s="5">
+        <v>135</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="4">
+        <v>5</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J163" s="5">
+        <v>140</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="4">
+        <v>5</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J164" s="5">
+        <v>140</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="4">
+        <v>6</v>
+      </c>
+      <c r="F165" s="4">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
+      </c>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="4">
+        <v>6</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0</v>
+      </c>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J166" s="5">
+        <v>0</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="4">
+        <v>6</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>1</v>
+      </c>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="4">
+        <v>6</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="4">
+        <v>0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0</v>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J169" s="5">
+        <v>110</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0</v>
+      </c>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J170" s="5">
+        <v>115</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F171" s="4">
+        <v>0</v>
+      </c>
+      <c r="G171" s="4">
+        <v>1</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1</v>
+      </c>
+      <c r="G172" s="4">
+        <v>1</v>
+      </c>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="4">
+        <v>2</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>0</v>
+      </c>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J173" s="5">
+        <v>110</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="4">
+        <v>2</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0</v>
+      </c>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J174" s="5">
+        <v>115</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="4">
+        <v>2</v>
+      </c>
+      <c r="F175" s="4">
+        <v>0</v>
+      </c>
+      <c r="G175" s="4">
+        <v>1</v>
+      </c>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0</v>
+      </c>
+      <c r="K175" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="4">
+    </row>
+    <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2</v>
+      </c>
+      <c r="F176" s="4">
+        <v>1</v>
+      </c>
+      <c r="G176" s="4">
+        <v>1</v>
+      </c>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="4">
+        <v>3</v>
+      </c>
+      <c r="F177" s="4">
+        <v>0</v>
+      </c>
+      <c r="G177" s="4">
+        <v>0</v>
+      </c>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="4">
+        <v>3</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="4">
+        <v>3</v>
+      </c>
+      <c r="F179" s="4">
+        <v>0</v>
+      </c>
+      <c r="G179" s="4">
+        <v>1</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="4">
+        <v>3</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1</v>
+      </c>
+      <c r="G180" s="4">
+        <v>1</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="4">
+        <v>4</v>
+      </c>
+      <c r="F181" s="4">
+        <v>0</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0</v>
+      </c>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="4">
+        <v>4</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+      <c r="G182" s="4">
+        <v>0</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="4">
+        <v>4</v>
+      </c>
+      <c r="F183" s="4">
+        <v>0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>1</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="4">
+        <v>4</v>
+      </c>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+      <c r="G184" s="4">
+        <v>1</v>
+      </c>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="4">
+        <v>5</v>
+      </c>
+      <c r="F185" s="4">
+        <v>0</v>
+      </c>
+      <c r="G185" s="4">
+        <v>0</v>
+      </c>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="4">
+        <v>5</v>
+      </c>
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="4">
+        <v>5</v>
+      </c>
+      <c r="F187" s="4">
+        <v>0</v>
+      </c>
+      <c r="G187" s="4">
+        <v>1</v>
+      </c>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="4">
+        <v>5</v>
+      </c>
+      <c r="F188" s="4">
+        <v>1</v>
+      </c>
+      <c r="G188" s="4">
+        <v>1</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="4">
         <v>6</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H64" s="5">
-        <v>120</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="4">
-        <v>7</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H65" s="5">
-        <v>120</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="4">
-        <v>8</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H66" s="5">
-        <v>120</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="4">
-        <v>9</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H67" s="5">
-        <v>125</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="4">
-        <v>10</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H68" s="5">
-        <v>125</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>28</v>
+      <c r="F189" s="4">
+        <v>0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="4">
+        <v>6</v>
+      </c>
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+      <c r="G190" s="4">
+        <v>0</v>
+      </c>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="4">
+        <v>6</v>
+      </c>
+      <c r="F191" s="4">
+        <v>0</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1</v>
+      </c>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="4">
+        <v>6</v>
+      </c>
+      <c r="F192" s="4">
+        <v>1</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1</v>
+      </c>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>